--- a/sparse_suite/memory_usage.xlsx
+++ b/sparse_suite/memory_usage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,383 +483,307 @@
       <c r="E2" t="n">
         <v>16607232</v>
       </c>
-      <c r="F2" t="n">
-        <v>11936448</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G2_circuit</t>
+          <t>Stanford</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4383880</v>
+        <v>23124970</v>
       </c>
       <c r="C3" t="n">
-        <v>3230740</v>
+        <v>15002598</v>
       </c>
       <c r="D3" t="n">
-        <v>3230740</v>
+        <v>15002598</v>
       </c>
       <c r="E3" t="n">
-        <v>21958656</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15782784</v>
-      </c>
+        <v>49248256</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stanford</t>
+          <t>bcsstk32</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23124970</v>
+        <v>10296550</v>
       </c>
       <c r="C4" t="n">
-        <v>15002598</v>
+        <v>6356370</v>
       </c>
       <c r="D4" t="n">
-        <v>15002598</v>
+        <v>6356370</v>
       </c>
       <c r="E4" t="n">
-        <v>49248256</v>
-      </c>
-      <c r="F4" t="n">
-        <v>35397184</v>
-      </c>
+        <v>12240896</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>bcsstk32</t>
+          <t>cant</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10296550</v>
+        <v>20349170</v>
       </c>
       <c r="C5" t="n">
-        <v>6356370</v>
+        <v>12459310</v>
       </c>
       <c r="D5" t="n">
-        <v>6356370</v>
+        <v>12459310</v>
       </c>
       <c r="E5" t="n">
-        <v>12240896</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8798144</v>
-      </c>
+        <v>23497728</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cant</t>
+          <t>consph</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20349170</v>
+        <v>30469070</v>
       </c>
       <c r="C6" t="n">
-        <v>12459310</v>
+        <v>18614782</v>
       </c>
       <c r="D6" t="n">
-        <v>12459310</v>
+        <v>18614782</v>
       </c>
       <c r="E6" t="n">
-        <v>23497728</v>
-      </c>
-      <c r="F6" t="n">
-        <v>16888992</v>
-      </c>
+        <v>33770496</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>consph</t>
+          <t>crankseg_2</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30469070</v>
+        <v>71063480</v>
       </c>
       <c r="C7" t="n">
-        <v>18614782</v>
+        <v>42893444</v>
       </c>
       <c r="D7" t="n">
-        <v>18614782</v>
+        <v>42893444</v>
       </c>
       <c r="E7" t="n">
-        <v>33770496</v>
-      </c>
-      <c r="F7" t="n">
-        <v>24272544</v>
-      </c>
+        <v>69389312</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>crankseg_2</t>
+          <t>ct20stif</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71063480</v>
+        <v>13753960</v>
       </c>
       <c r="C8" t="n">
-        <v>42893444</v>
+        <v>8461696</v>
       </c>
       <c r="D8" t="n">
-        <v>42893444</v>
+        <v>8461696</v>
       </c>
       <c r="E8" t="n">
-        <v>69389312</v>
-      </c>
-      <c r="F8" t="n">
-        <v>49873568</v>
-      </c>
+        <v>15997952</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ct20stif</t>
+          <t>lhr71</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13753960</v>
+        <v>15280920</v>
       </c>
       <c r="C9" t="n">
-        <v>8461696</v>
+        <v>9449772</v>
       </c>
       <c r="D9" t="n">
-        <v>8461696</v>
+        <v>9449772</v>
       </c>
       <c r="E9" t="n">
-        <v>15997952</v>
-      </c>
-      <c r="F9" t="n">
-        <v>11498528</v>
-      </c>
+        <v>22567936</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>lhr71</t>
+          <t>ohne2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15280920</v>
+        <v>110635450</v>
       </c>
       <c r="C10" t="n">
-        <v>9449772</v>
+        <v>67106646</v>
       </c>
       <c r="D10" t="n">
-        <v>9449772</v>
+        <v>67106646</v>
       </c>
       <c r="E10" t="n">
-        <v>22567936</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16220704</v>
-      </c>
+        <v>116833280</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ohne2</t>
+          <t>pdb1HYS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110635450</v>
+        <v>21905910</v>
       </c>
       <c r="C11" t="n">
-        <v>67106646</v>
+        <v>13289218</v>
       </c>
       <c r="D11" t="n">
-        <v>67106646</v>
+        <v>13289218</v>
       </c>
       <c r="E11" t="n">
-        <v>116833280</v>
-      </c>
-      <c r="F11" t="n">
-        <v>83973920</v>
-      </c>
+        <v>22529024</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pdb1HYS</t>
+          <t>pwtk</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21905910</v>
+        <v>59261710</v>
       </c>
       <c r="C12" t="n">
-        <v>13289218</v>
+        <v>36428702</v>
       </c>
       <c r="D12" t="n">
-        <v>13289218</v>
+        <v>36428702</v>
       </c>
       <c r="E12" t="n">
-        <v>22529024</v>
-      </c>
-      <c r="F12" t="n">
-        <v>16192736</v>
-      </c>
+        <v>64236544</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pwtk</t>
+          <t>rma10</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59261710</v>
+        <v>23740010</v>
       </c>
       <c r="C13" t="n">
-        <v>36428702</v>
+        <v>14431350</v>
       </c>
       <c r="D13" t="n">
-        <v>36428702</v>
+        <v>14431350</v>
       </c>
       <c r="E13" t="n">
-        <v>64236544</v>
-      </c>
-      <c r="F13" t="n">
-        <v>46170016</v>
-      </c>
+        <v>24380416</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rma10</t>
+          <t>shipsec1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23740010</v>
+        <v>39771390</v>
       </c>
       <c r="C14" t="n">
-        <v>14431350</v>
+        <v>24426334</v>
       </c>
       <c r="D14" t="n">
-        <v>14431350</v>
+        <v>24426334</v>
       </c>
       <c r="E14" t="n">
-        <v>24380416</v>
-      </c>
-      <c r="F14" t="n">
-        <v>17523424</v>
-      </c>
+        <v>44963840</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>shipsec1</t>
+          <t>soc-sign-epinions</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>39771390</v>
+        <v>8413720</v>
       </c>
       <c r="C15" t="n">
-        <v>24426334</v>
+        <v>5575548</v>
       </c>
       <c r="D15" t="n">
-        <v>24426334</v>
+        <v>5575548</v>
       </c>
       <c r="E15" t="n">
-        <v>44963840</v>
-      </c>
-      <c r="F15" t="n">
-        <v>32317760</v>
-      </c>
+        <v>17563648</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>soc-sign-epinions</t>
+          <t>webbase-1M</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8413720</v>
+        <v>31055360</v>
       </c>
       <c r="C16" t="n">
-        <v>5575548</v>
+        <v>22633240</v>
       </c>
       <c r="D16" t="n">
-        <v>5575548</v>
+        <v>22633240</v>
       </c>
       <c r="E16" t="n">
-        <v>17563648</v>
-      </c>
-      <c r="F16" t="n">
-        <v>12623872</v>
-      </c>
+        <v>160871424</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sorted_consph</t>
+          <t>xenon2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30469070</v>
+        <v>38666880</v>
       </c>
       <c r="C17" t="n">
-        <v>18614782</v>
+        <v>23829988</v>
       </c>
       <c r="D17" t="n">
-        <v>18614782</v>
+        <v>23829988</v>
       </c>
       <c r="E17" t="n">
-        <v>33770496</v>
-      </c>
-      <c r="F17" t="n">
-        <v>24272544</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>webbase-1M</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>31055360</v>
-      </c>
-      <c r="C18" t="n">
-        <v>22633240</v>
-      </c>
-      <c r="D18" t="n">
-        <v>22633240</v>
-      </c>
-      <c r="E18" t="n">
-        <v>160871424</v>
-      </c>
-      <c r="F18" t="n">
-        <v>115626336</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>xenon2</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>38666880</v>
-      </c>
-      <c r="C19" t="n">
-        <v>23829988</v>
-      </c>
-      <c r="D19" t="n">
-        <v>23829988</v>
-      </c>
-      <c r="E19" t="n">
         <v>43695104</v>
       </c>
-      <c r="F19" t="n">
-        <v>31405856</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
